--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4265E5-83BD-8740-AABF-4E167C0742A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E83997-BF63-574E-BADF-F6EBB2C252C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -335,6 +335,30 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -3767,6 +3791,378 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B3751D-14D7-C44F-9CC2-A09058BD994D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9457FD79-2724-1540-A36D-73ED087874B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B356FF2-FC5B-CA40-A5FB-C6B73CE2A2B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ADE5F7-DF84-7944-AA0C-C706604B8F80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88984937-0784-0548-AE3E-00FECBDE6536}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6035EB6B-4E9B-104B-90BB-5ECDF0A7005A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -4072,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6931,6 +7327,138 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId55" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId56" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId57" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId58" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId59" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId60" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E83997-BF63-574E-BADF-F6EBB2C252C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="14_{EB90DCE2-D67E-48F2-852C-6F2834FAA272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F1C6EF37-B940-4B1F-9ADF-E9E6AC6D4249}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -382,7 +372,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -516,7 +506,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -583,7 +573,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -650,7 +640,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -717,7 +707,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -784,7 +774,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -851,7 +841,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -918,7 +908,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -985,7 +975,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1052,7 +1042,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1119,7 +1109,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1186,7 +1176,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1253,7 +1243,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1320,7 +1310,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1387,7 +1377,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1454,7 +1444,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1521,7 +1511,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1588,7 +1578,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1655,7 +1645,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1722,7 +1712,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1789,7 +1779,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1856,7 +1846,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1923,7 +1913,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1990,7 +1980,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2057,7 +2047,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2124,7 +2114,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2191,7 +2181,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2258,7 +2248,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2325,7 +2315,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2392,7 +2382,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2459,7 +2449,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2526,7 +2516,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2593,7 +2583,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2660,7 +2650,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2727,15 +2717,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2794,15 +2784,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2861,15 +2851,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>578</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2928,15 +2918,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2995,15 +2985,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3062,15 +3052,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>578</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3129,15 +3119,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3196,15 +3186,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3263,15 +3253,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3330,15 +3320,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>578</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3397,15 +3387,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3464,15 +3454,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3531,15 +3521,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3598,15 +3588,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>578</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3665,15 +3655,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3732,15 +3722,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3796,14 +3786,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>578</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
@@ -3812,7 +3807,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B3751D-14D7-C44F-9CC2-A09058BD994D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3852,20 +3847,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
@@ -3874,7 +3874,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9457FD79-2724-1540-A36D-73ED087874B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3914,20 +3914,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
@@ -3936,7 +3941,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B356FF2-FC5B-CA40-A5FB-C6B73CE2A2B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3976,20 +3981,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
@@ -3998,7 +4008,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ADE5F7-DF84-7944-AA0C-C706604B8F80}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4038,20 +4048,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>578</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
@@ -4060,7 +4075,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88984937-0784-0548-AE3E-00FECBDE6536}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4100,20 +4115,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>577</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
@@ -4122,7 +4142,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6035EB6B-4E9B-104B-90BB-5ECDF0A7005A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4162,7 +4182,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -4469,23 +4489,23 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:H24"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4520,7 +4540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -4549,7 +4569,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -4578,7 +4598,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -4601,7 +4621,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -4630,7 +4650,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
@@ -4659,7 +4679,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -4688,7 +4708,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -4717,7 +4737,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
@@ -4746,7 +4766,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>203</v>
       </c>
@@ -4775,7 +4795,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>107</v>
       </c>
@@ -4804,7 +4824,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>108</v>
       </c>
@@ -4836,7 +4856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>109</v>
       </c>
@@ -4866,7 +4886,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>110</v>
       </c>
@@ -4895,7 +4915,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>111</v>
       </c>
@@ -4925,7 +4945,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>112</v>
       </c>
@@ -4955,7 +4975,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>205</v>
       </c>
@@ -4985,7 +5005,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>206</v>
       </c>
@@ -5014,7 +5034,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113</v>
       </c>
@@ -5044,7 +5064,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>207</v>
       </c>
@@ -5074,7 +5094,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>114</v>
       </c>
@@ -5104,7 +5124,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>115</v>
       </c>
@@ -5127,14 +5147,14 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H41" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H43" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
         <v>44580</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>116</v>
       </c>
@@ -5164,7 +5184,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>117</v>
       </c>
@@ -5194,7 +5214,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>118</v>
       </c>
@@ -5224,7 +5244,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>119</v>
       </c>
@@ -5254,7 +5274,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>120</v>
       </c>
@@ -5284,7 +5304,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>121</v>
       </c>
@@ -5314,7 +5334,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>208</v>
       </c>
@@ -5344,7 +5364,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>209</v>
       </c>
@@ -5374,7 +5394,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>122</v>
       </c>
@@ -5404,7 +5424,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>211</v>
       </c>
@@ -5434,7 +5454,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>212</v>
       </c>
@@ -5464,7 +5484,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>213</v>
       </c>
@@ -5494,7 +5514,7 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>123</v>
       </c>
@@ -5527,7 +5547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>214</v>
       </c>
@@ -5557,7 +5577,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>215</v>
       </c>
@@ -5587,7 +5607,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>124</v>
       </c>
@@ -5617,7 +5637,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>125</v>
       </c>
@@ -5647,7 +5667,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>218</v>
       </c>
@@ -5677,7 +5697,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>219</v>
       </c>
@@ -5707,492 +5727,542 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>126</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="F42" s="6">
+        <v>129</v>
+      </c>
+      <c r="G42" s="6">
+        <v>394</v>
+      </c>
+      <c r="H42" s="6">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="I42" s="4">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>127</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="F43" s="6">
+        <v>283</v>
+      </c>
+      <c r="G43" s="6">
+        <v>404</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="I43" s="4">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -6212,7 +6282,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6256,7 +6326,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6278,7 +6348,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6300,7 +6370,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6322,7 +6392,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6344,7 +6414,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6366,7 +6436,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6388,7 +6458,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6410,7 +6480,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6432,7 +6502,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6454,7 +6524,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6476,7 +6546,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6498,7 +6568,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6520,7 +6590,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6542,7 +6612,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6564,7 +6634,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6586,7 +6656,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6608,7 +6678,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6630,7 +6700,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6652,7 +6722,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6674,7 +6744,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6696,7 +6766,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6718,7 +6788,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6740,7 +6810,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6762,7 +6832,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6784,7 +6854,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6806,7 +6876,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6828,7 +6898,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6850,7 +6920,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6872,7 +6942,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6894,7 +6964,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6916,7 +6986,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6938,7 +7008,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6960,7 +7030,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6982,7 +7052,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6990,7 +7060,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7004,7 +7074,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7012,7 +7082,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7026,7 +7096,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7034,7 +7104,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7048,7 +7118,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7056,7 +7126,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7070,7 +7140,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7078,7 +7148,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7092,7 +7162,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7100,7 +7170,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7114,7 +7184,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7122,7 +7192,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7136,7 +7206,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7144,7 +7214,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7158,7 +7228,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7166,7 +7236,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7180,7 +7250,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7188,7 +7258,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7202,7 +7272,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7210,7 +7280,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7224,7 +7294,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7232,7 +7302,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7246,7 +7316,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7254,7 +7324,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7268,7 +7338,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7276,7 +7346,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7290,7 +7360,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7298,7 +7368,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7312,7 +7382,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7320,7 +7390,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7334,7 +7404,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7342,7 +7412,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7356,7 +7426,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7364,7 +7434,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7378,7 +7448,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7386,7 +7456,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7400,7 +7470,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7408,7 +7478,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7422,7 +7492,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7430,7 +7500,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7444,7 +7514,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -7452,7 +7522,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="14_{EB90DCE2-D67E-48F2-852C-6F2834FAA272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F1C6EF37-B940-4B1F-9ADF-E9E6AC6D4249}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{639708B7-9CE1-4A0A-8250-C1C28EDB4545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -5147,7 +5147,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H43" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H44" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -5788,9 +5788,34 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="A44">
+        <v>128</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F44" s="6">
+        <v>23</v>
+      </c>
+      <c r="G44" s="6">
+        <v>101</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="I44" s="4">
+        <v>44768</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F45" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{639708B7-9CE1-4A0A-8250-C1C28EDB4545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="14_{639708B7-9CE1-4A0A-8250-C1C28EDB4545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E1419166-19A8-4462-93CA-2F7250FBDF01}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -90,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,16 +116,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2724,8 +2731,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2791,8 +2798,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2858,8 +2865,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>578</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2925,8 +2932,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2992,8 +2999,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3059,8 +3066,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>578</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3126,8 +3133,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3193,8 +3200,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3260,8 +3267,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3327,8 +3334,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>578</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3394,8 +3401,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3461,8 +3468,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3528,8 +3535,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3595,8 +3602,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>578</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3662,8 +3669,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3729,8 +3736,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3796,8 +3803,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>578</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3863,8 +3870,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3930,8 +3937,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3997,8 +4004,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4064,8 +4071,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>578</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4131,8 +4138,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>577</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4489,7 +4496,8 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4500,43 +4508,43 @@
     <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.796875" customWidth="1"/>
     <col min="10" max="10" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4544,28 +4552,28 @@
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.65069444444444446</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>824</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>867</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>43</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>44398</v>
       </c>
     </row>
@@ -4573,28 +4581,28 @@
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.66736111111111107</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.67986111111111114</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.75</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>128</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>152</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>24</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>44404</v>
       </c>
     </row>
@@ -4602,22 +4610,22 @@
       <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.61249999999999993</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3">
         <v>44405</v>
       </c>
     </row>
@@ -4625,28 +4633,28 @@
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.58402777777777781</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.60625000000000007</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>83</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>134</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>51</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>44413</v>
       </c>
     </row>
@@ -4654,28 +4662,28 @@
       <c r="A6">
         <v>201</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.54027777777777775</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>1025</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>1138</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>113</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>44439</v>
       </c>
     </row>
@@ -4683,28 +4691,28 @@
       <c r="A7">
         <v>105</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.62222222222222223</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>86</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>192</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>106</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>44440</v>
       </c>
     </row>
@@ -4712,28 +4720,28 @@
       <c r="A8">
         <v>106</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.4597222222222222</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>63</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>199</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>136</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>44454</v>
       </c>
     </row>
@@ -4741,28 +4749,28 @@
       <c r="A9">
         <v>202</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.67152777777777783</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.70347222222222217</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>157</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>528</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>371</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>44466</v>
       </c>
     </row>
@@ -4770,28 +4778,28 @@
       <c r="A10">
         <v>203</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.63472222222222219</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.65486111111111112</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>62</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>260</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>198</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>44474</v>
       </c>
     </row>
@@ -4799,28 +4807,28 @@
       <c r="A11">
         <v>107</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.46249999999999997</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>112</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>232</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>120</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>44475</v>
       </c>
     </row>
@@ -4828,31 +4836,31 @@
       <c r="A12">
         <v>108</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.4770833333333333</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>63</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>88</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>25</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>44482</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4860,29 +4868,29 @@
       <c r="A13">
         <v>109</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.64722222222222225</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>202</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>318</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f>G13-F13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>44487</v>
       </c>
     </row>
@@ -4890,28 +4898,28 @@
       <c r="A14">
         <v>110</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>59</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>108</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>49</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>44508</v>
       </c>
     </row>
@@ -4919,29 +4927,29 @@
       <c r="A15">
         <v>111</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>170</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>259</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f>SUM(G15-F15)</f>
         <v>89</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>44515</v>
       </c>
     </row>
@@ -4949,29 +4957,29 @@
       <c r="A16">
         <v>112</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.4236111111111111</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>225</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>351</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f>SUM(G16-F16)</f>
         <v>126</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>44547</v>
       </c>
     </row>
@@ -4979,29 +4987,29 @@
       <c r="A17">
         <v>205</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.4152777777777778</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>160</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>189</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <f>SUM(G17-F17)</f>
         <v>29</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>44526</v>
       </c>
     </row>
@@ -5009,28 +5017,28 @@
       <c r="A18">
         <v>206</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.42291666666666666</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>233</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>318</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>85</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>44568</v>
       </c>
     </row>
@@ -5038,29 +5046,29 @@
       <c r="A19">
         <v>113</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.55486111111111114</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.56805555555555554</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>138</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>491</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <f>G19-F19</f>
         <v>353</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>44571</v>
       </c>
     </row>
@@ -5068,29 +5076,29 @@
       <c r="A20">
         <v>207</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>0.42986111111111108</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.44375000000000003</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>276</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <v>585</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <f>G20-F20</f>
         <v>309</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>44578</v>
       </c>
     </row>
@@ -5098,29 +5106,29 @@
       <c r="A21">
         <v>114</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.66180555555555554</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.6743055555555556</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>107</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>179</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <f>G21-F21</f>
         <v>72</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>44572</v>
       </c>
     </row>
@@ -5128,29 +5136,29 @@
       <c r="A22">
         <v>115</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.38680555555555557</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.4152777777777778</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.47430555555555554</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>187</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>754</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" ref="H22:H44" si="0">G22-F22</f>
+      <c r="H22" s="4">
+        <f t="shared" ref="H22:H46" si="0">G22-F22</f>
         <v>567</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>44580</v>
       </c>
     </row>
@@ -5158,29 +5166,29 @@
       <c r="A23">
         <v>116</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.57708333333333328</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>170</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="4">
         <v>630</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>44585</v>
       </c>
     </row>
@@ -5188,29 +5196,29 @@
       <c r="A24">
         <v>117</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0.55277777777777781</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.56736111111111109</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>38</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>38</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>44592</v>
       </c>
     </row>
@@ -5218,29 +5226,29 @@
       <c r="A25">
         <v>118</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>42</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <v>438</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>44606</v>
       </c>
     </row>
@@ -5248,29 +5256,29 @@
       <c r="A26">
         <v>119</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>225</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>322</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>44608</v>
       </c>
     </row>
@@ -5278,29 +5286,29 @@
       <c r="A27">
         <v>120</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>95</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>188</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>44620</v>
       </c>
     </row>
@@ -5308,29 +5316,29 @@
       <c r="A28">
         <v>121</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>143</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>234</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="4">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>44622</v>
       </c>
     </row>
@@ -5338,29 +5346,29 @@
       <c r="A29">
         <v>208</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.46319444444444446</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>38</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <v>126</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>44659</v>
       </c>
     </row>
@@ -5368,29 +5376,29 @@
       <c r="A30">
         <v>209</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>0.52847222222222223</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="4">
         <v>155</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <v>176</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>44664</v>
       </c>
     </row>
@@ -5398,29 +5406,29 @@
       <c r="A31">
         <v>122</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>0.625</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="4">
         <v>122</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <v>328</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="4">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>44670</v>
       </c>
     </row>
@@ -5428,29 +5436,29 @@
       <c r="A32">
         <v>211</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>0.59583333333333333</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>0.67013888888888884</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <v>414</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="4">
         <v>433</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>44686</v>
       </c>
     </row>
@@ -5458,29 +5466,29 @@
       <c r="A33">
         <v>212</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>0.6743055555555556</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.75</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="4">
         <v>589</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <v>633</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>44686</v>
       </c>
     </row>
@@ -5488,29 +5496,29 @@
       <c r="A34">
         <v>213</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>0.53402777777777777</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="4">
         <v>133</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <v>317</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>44700</v>
       </c>
     </row>
@@ -5518,29 +5526,29 @@
       <c r="A35">
         <v>123</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>0.58819444444444446</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>0.59652777777777777</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>0.65972222222222221</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="4">
         <v>1155</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="4">
         <v>1309</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="4">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>44701</v>
       </c>
       <c r="K35" t="s">
@@ -5551,29 +5559,29 @@
       <c r="A36">
         <v>214</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>0.59236111111111112</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>686</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <v>883</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="4">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>44706</v>
       </c>
     </row>
@@ -5581,29 +5589,29 @@
       <c r="A37">
         <v>215</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>0.59791666666666665</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
         <v>1526</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="4">
         <v>1648</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="4">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>44706</v>
       </c>
     </row>
@@ -5611,29 +5619,29 @@
       <c r="A38">
         <v>124</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="4">
         <v>25</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="4">
         <v>45</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>44715</v>
       </c>
     </row>
@@ -5641,29 +5649,29 @@
       <c r="A39">
         <v>125</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>0.41388888888888892</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="4">
         <v>75</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="4">
         <v>199</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>44720</v>
       </c>
     </row>
@@ -5671,29 +5679,29 @@
       <c r="A40">
         <v>218</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="4">
         <v>62</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="4">
         <v>149</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>44728</v>
       </c>
     </row>
@@ -5701,29 +5709,29 @@
       <c r="A41">
         <v>219</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="4">
         <v>442</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="4">
         <v>631</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="4">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>44728</v>
       </c>
     </row>
@@ -5731,29 +5739,29 @@
       <c r="A42">
         <v>126</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>0.5</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="6">
         <v>0.51180555555555551</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>0.52638888888888891</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="4">
         <v>129</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="4">
         <v>394</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="4">
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>44749</v>
       </c>
     </row>
@@ -5761,29 +5769,29 @@
       <c r="A43">
         <v>127</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="6">
         <v>0.4291666666666667</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="4">
         <v>283</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="4">
         <v>404</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="4">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>44750</v>
       </c>
     </row>
@@ -5791,506 +5799,556 @@
       <c r="A44">
         <v>128</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>0.62777777777777777</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="5">
         <v>0.63472222222222219</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="5">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="4">
         <v>23</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="4">
         <v>101</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>44768</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="A45">
+        <v>129</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="F45" s="4">
+        <v>155</v>
+      </c>
+      <c r="G45" s="4">
+        <v>251</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I45" s="3">
+        <v>44777</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="A46">
+        <v>130</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F46" s="4">
+        <v>34</v>
+      </c>
+      <c r="G46" s="4">
+        <v>175</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="I46" s="3">
+        <v>44781</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
     </row>
     <row r="114" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
     </row>
     <row r="115" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
     </row>
     <row r="120" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
     </row>
     <row r="121" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
     </row>
     <row r="122" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
     </row>
     <row r="125" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
     </row>
     <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
     </row>
     <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
     </row>
     <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
     </row>
     <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
     </row>
     <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
     </row>
     <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
     </row>
     <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
     </row>
     <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
     </row>
     <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="14_{639708B7-9CE1-4A0A-8250-C1C28EDB4545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E1419166-19A8-4462-93CA-2F7250FBDF01}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5E91A141-D877-4D32-AAD3-FA5796B598D7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ID participant</t>
   </si>
@@ -60,10 +60,7 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Keine 15 Min. vor Erhebung</t>
+    <t>no data available</t>
   </si>
 </sst>
 </file>
@@ -249,7 +246,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -289,7 +286,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
@@ -317,7 +314,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -325,23 +322,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,7 +353,35 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1787,13 +1812,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1854,13 +1879,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1921,13 +1946,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1988,13 +2013,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2055,13 +2080,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2122,13 +2147,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2189,13 +2214,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2256,13 +2281,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2323,13 +2348,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2390,13 +2415,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2457,13 +2482,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2524,13 +2549,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2591,13 +2616,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2658,13 +2683,13 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2725,14 +2750,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2792,14 +2817,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2859,14 +2884,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2926,14 +2951,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2993,14 +3018,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3060,14 +3085,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3127,14 +3152,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3194,14 +3219,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3261,14 +3286,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3328,14 +3353,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3395,14 +3420,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3462,14 +3487,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3529,14 +3554,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3596,14 +3621,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3663,14 +3688,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3730,14 +3755,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3797,14 +3822,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3864,14 +3889,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3931,14 +3956,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3998,14 +4023,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4065,14 +4090,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4132,14 +4157,14 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4150,6 +4175,475 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4493,11 +4987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4837,10 +5331,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="1">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.4770833333333333</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.4777777777777778</v>
       </c>
       <c r="D12" s="1">
         <v>0.49027777777777781</v>
@@ -4860,9 +5354,7 @@
       <c r="I12" s="3">
         <v>44482</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -4925,1052 +5417,1230 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C15" s="1">
-        <v>0.6645833333333333</v>
+        <v>0.46875</v>
       </c>
       <c r="D15" s="1">
-        <v>0.6777777777777777</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="E15" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="F15" s="4">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G15" s="4">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="H15" s="4">
         <f>SUM(G15-F15)</f>
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I15" s="3">
-        <v>44515</v>
+        <v>44512</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.44097222222222227</v>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.6645833333333333</v>
       </c>
       <c r="D16" s="1">
-        <v>0.45277777777777778</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="E16" s="1">
-        <v>0.49861111111111112</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F16" s="4">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="G16" s="4">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="H16" s="4">
         <f>SUM(G16-F16)</f>
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="I16" s="3">
-        <v>44547</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1">
-        <v>0.4152777777777778</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="C17" s="5">
-        <v>0.43124999999999997</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.4458333333333333</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.5083333333333333</v>
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.49861111111111112</v>
       </c>
       <c r="F17" s="4">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="G17" s="4">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="H17" s="4">
         <f>SUM(G17-F17)</f>
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="I17" s="3">
-        <v>44526</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="1">
-        <v>0.42291666666666666</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.44861111111111113</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.49861111111111112</v>
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.5083333333333333</v>
       </c>
       <c r="F18" s="4">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="G18" s="4">
-        <v>318</v>
+        <v>189</v>
       </c>
       <c r="H18" s="4">
-        <v>85</v>
+        <f>SUM(G18-F18)</f>
+        <v>29</v>
       </c>
       <c r="I18" s="3">
-        <v>44568</v>
+        <v>44526</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="B19" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.42291666666666666</v>
       </c>
       <c r="C19" s="1">
-        <v>0.55486111111111114</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="D19" s="1">
-        <v>0.56805555555555554</v>
+        <v>0.44861111111111113</v>
       </c>
       <c r="E19" s="1">
-        <v>0.60972222222222217</v>
+        <v>0.49861111111111112</v>
       </c>
       <c r="F19" s="4">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="G19" s="4">
-        <v>491</v>
+        <v>318</v>
       </c>
       <c r="H19" s="4">
-        <f>G19-F19</f>
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="I19" s="3">
-        <v>44571</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1">
-        <v>0.41805555555555557</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C20" s="1">
-        <v>0.42986111111111108</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="D20" s="1">
-        <v>0.44375000000000003</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="E20" s="1">
-        <v>0.51388888888888895</v>
+        <v>0.60972222222222217</v>
       </c>
       <c r="F20" s="4">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="G20" s="4">
-        <v>585</v>
+        <v>491</v>
       </c>
       <c r="H20" s="4">
         <f>G20-F20</f>
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="I20" s="3">
-        <v>44578</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="B21" s="1">
-        <v>0.6430555555555556</v>
+        <v>0.41805555555555557</v>
       </c>
       <c r="C21" s="1">
-        <v>0.66180555555555554</v>
+        <v>0.42986111111111108</v>
       </c>
       <c r="D21" s="1">
-        <v>0.6743055555555556</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>0.72569444444444453</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F21" s="4">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="G21" s="4">
-        <v>179</v>
+        <v>585</v>
       </c>
       <c r="H21" s="4">
         <f>G21-F21</f>
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="I21" s="3">
-        <v>44572</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="1">
-        <v>0.38680555555555557</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="C22" s="1">
-        <v>0.4152777777777778</v>
+        <v>0.66180555555555554</v>
       </c>
       <c r="D22" s="1">
-        <v>0.42777777777777781</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="E22" s="1">
-        <v>0.47430555555555554</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="F22" s="4">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="G22" s="4">
-        <v>754</v>
+        <v>179</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" ref="H22:H46" si="0">G22-F22</f>
-        <v>567</v>
+        <f>G22-F22</f>
+        <v>72</v>
       </c>
       <c r="I22" s="3">
-        <v>44580</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>115</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F23" s="4">
+        <v>187</v>
+      </c>
+      <c r="G23" s="4">
+        <v>754</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" ref="H23:H53" si="0">G23-F23</f>
+        <v>567</v>
+      </c>
+      <c r="I23" s="3">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>116</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>0.57708333333333328</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>170</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>630</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <v>44585</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>117</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>0.55277777777777781</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>0.56736111111111109</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>38</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G25" s="4">
         <v>38</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>44592</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>118</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="4">
         <v>42</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="4">
         <v>438</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="3">
         <v>44606</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>119</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>225</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>322</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="3">
         <v>44608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>120</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>95</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>188</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I28" s="3">
         <v>44620</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>121</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>143</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <v>234</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <v>44622</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>208</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>0.46319444444444446</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>38</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>126</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="3">
         <v>44659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>209</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>0.46527777777777773</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>0.52847222222222223</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>155</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G31" s="4">
         <v>176</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="3">
         <v>44664</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>122</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>0.625</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>122</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="4">
         <v>328</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I32" s="3">
         <v>44670</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>210</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1333</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1419</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I33" s="3">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>211</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C34" s="1">
         <v>0.59583333333333333</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D34" s="1">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E34" s="1">
         <v>0.67013888888888884</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F34" s="4">
         <v>414</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G34" s="4">
         <v>433</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H34" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I34" s="3">
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>212</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <v>0.6743055555555556</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C35" s="1">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D35" s="1">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E35" s="1">
         <v>0.75</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F35" s="4">
         <v>589</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G35" s="4">
         <v>633</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H35" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I35" s="3">
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>213</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <v>0.53402777777777777</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C36" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D36" s="1">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E36" s="1">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F36" s="4">
         <v>133</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G36" s="4">
         <v>317</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H36" s="4">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I36" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>123</v>
       </c>
-      <c r="B35" s="1">
-        <v>0.58819444444444446</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B37" s="1">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C37" s="1">
         <v>0.59652777777777777</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D37" s="1">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E35" s="1">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="E37" s="1">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="F37" s="4">
         <v>1155</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G37" s="4">
         <v>1309</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H37" s="4">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I37" s="3">
         <v>44701</v>
       </c>
-      <c r="K35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>214</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B38" s="1">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C38" s="1">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D38" s="1">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E38" s="1">
         <v>0.59236111111111112</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F38" s="4">
         <v>686</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G38" s="4">
         <v>883</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H38" s="4">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I38" s="3">
         <v>44706</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>215</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B39" s="1">
         <v>0.59791666666666665</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C39" s="1">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D39" s="1">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E39" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F39" s="4">
         <v>1526</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G39" s="4">
         <v>1648</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I39" s="3">
         <v>44706</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>124</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B40" s="1">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C40" s="1">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D40" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E40" s="1">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F40" s="4">
         <v>25</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G40" s="4">
         <v>45</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H40" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I40" s="3">
         <v>44715</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>216</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="F41" s="4">
+        <v>120</v>
+      </c>
+      <c r="G41" s="4">
+        <v>176</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I41" s="3">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>125</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B42" s="1">
         <v>0.41388888888888892</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C42" s="1">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D42" s="1">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E42" s="1">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F42" s="4">
         <v>75</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G42" s="4">
         <v>199</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H42" s="4">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I42" s="3">
         <v>44720</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>217</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="F43" s="4">
+        <v>410</v>
+      </c>
+      <c r="G43" s="4">
+        <v>449</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="3">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>218</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B44" s="1">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C44" s="1">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D44" s="1">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E44" s="1">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F44" s="4">
         <v>62</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G44" s="4">
         <v>149</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H44" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I44" s="3">
         <v>44728</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>219</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B45" s="1">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C45" s="1">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D45" s="1">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E45" s="1">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F45" s="4">
         <v>442</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G45" s="4">
         <v>631</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H45" s="4">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I45" s="3">
         <v>44728</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>126</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B46" s="6">
         <v>0.5</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C46" s="6">
         <v>0.51180555555555551</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D46" s="6">
         <v>0.52638888888888891</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E46" s="6">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F46" s="4">
         <v>129</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G46" s="4">
         <v>394</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H46" s="4">
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I46" s="3">
         <v>44749</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>127</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B47" s="1">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C47" s="6">
         <v>0.4291666666666667</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D47" s="6">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E47" s="6">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F47" s="4">
         <v>283</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G47" s="4">
         <v>404</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H47" s="4">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I47" s="3">
         <v>44750</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>128</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B48" s="1">
         <v>0.62777777777777777</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C48" s="5">
         <v>0.63472222222222219</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D48" s="5">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E48" s="5">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F48" s="4">
         <v>23</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G48" s="4">
         <v>101</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H48" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I48" s="3">
         <v>44768</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>129</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B49" s="5">
         <v>0.65625</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C49" s="5">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D49" s="5">
         <v>0.6875</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E49" s="5">
         <v>0.71875</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F49" s="4">
         <v>155</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G49" s="4">
         <v>251</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H49" s="4">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I49" s="3">
         <v>44777</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>130</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B50" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C50" s="5">
         <v>0.47152777777777777</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D50" s="5">
         <v>0.48541666666666666</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E50" s="5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F50" s="4">
         <v>34</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G50" s="4">
         <v>175</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H50" s="4">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I50" s="3">
         <v>44781</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>131</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="F51" s="4">
+        <v>119</v>
+      </c>
+      <c r="G51" s="4">
+        <v>295</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="I51" s="3">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>132</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F52" s="4">
+        <v>67</v>
+      </c>
+      <c r="G52" s="4">
+        <v>88</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44818</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>133</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F53" s="4">
+        <v>162</v>
+      </c>
+      <c r="G53" s="4">
+        <v>266</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="I53" s="3">
+        <v>44818</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -6349,6 +7019,26 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6828,13 +7518,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6850,13 +7540,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6872,13 +7562,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6894,13 +7584,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6916,13 +7606,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6938,13 +7628,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6960,13 +7650,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6982,13 +7672,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7004,13 +7694,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7026,13 +7716,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7048,13 +7738,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7070,13 +7760,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7092,13 +7782,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7114,13 +7804,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7136,13 +7826,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7158,13 +7848,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7180,13 +7870,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7202,13 +7892,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7224,13 +7914,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7246,13 +7936,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7268,13 +7958,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7290,13 +7980,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>35</xdr:row>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>35</xdr:row>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7312,13 +8002,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7334,13 +8024,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7356,13 +8046,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7378,13 +8068,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7400,13 +8090,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7422,13 +8112,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7444,13 +8134,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7466,13 +8156,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7488,13 +8178,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7510,13 +8200,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>49</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7532,13 +8222,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7554,13 +8244,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7576,13 +8266,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>52</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7598,14 +8288,168 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>53</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId61" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId62" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId63" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId64" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId65" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId66" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId67" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5E91A141-D877-4D32-AAD3-FA5796B598D7}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A75B0A6B-AEF4-4260-987A-5D22BD62FC9B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID participant</t>
   </si>
@@ -2756,8 +2756,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2823,8 +2823,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2890,8 +2890,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2957,8 +2957,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3024,8 +3024,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3091,8 +3091,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3158,8 +3158,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3225,8 +3225,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3292,8 +3292,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3359,8 +3359,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3426,8 +3426,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3493,8 +3493,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3560,8 +3560,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3627,8 +3627,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3694,8 +3694,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3761,8 +3761,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3828,8 +3828,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3895,8 +3895,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3962,8 +3962,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4029,8 +4029,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4096,8 +4096,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4163,8 +4163,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4991,7 +4991,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5429,7 +5429,7 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="E15" s="1">
-        <v>0.52222222222222225</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F15" s="4">
         <v>114</v>
@@ -5677,7 +5677,7 @@
         <v>754</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" ref="H23:H53" si="0">G23-F23</f>
+        <f t="shared" ref="H23:H54" si="0">G23-F23</f>
         <v>567</v>
       </c>
       <c r="I23" s="3">
@@ -6586,14 +6586,36 @@
       <c r="I53" s="3">
         <v>44818</v>
       </c>
-      <c r="K53" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="A54">
+        <v>134</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="F54" s="4">
+        <v>43</v>
+      </c>
+      <c r="G54" s="4">
+        <v>157</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="I54" s="3">
+        <v>44823</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F55" s="4"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A75B0A6B-AEF4-4260-987A-5D22BD62FC9B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{10542DDB-8A6B-485A-A73E-EB7B956D7431}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>ID participant</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>no data available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no steps </t>
+  </si>
+  <si>
+    <t>no steps</t>
   </si>
 </sst>
 </file>
@@ -101,10 +107,54 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -113,17 +163,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -246,7 +300,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -314,7 +368,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +400,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,6 +439,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2756,8 +2814,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2823,8 +2881,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2890,8 +2948,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2957,8 +3015,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3024,8 +3082,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3091,8 +3149,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3158,8 +3216,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3225,8 +3283,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3292,8 +3350,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3359,8 +3417,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3426,8 +3484,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3493,8 +3551,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3560,8 +3618,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3627,8 +3685,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3694,8 +3752,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3761,8 +3819,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3828,8 +3886,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3895,8 +3953,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3962,8 +4020,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4029,8 +4087,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4096,8 +4154,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4163,8 +4221,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4644,6 +4702,73 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4989,2078 +5114,2092 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A46:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="6"/>
+    <col min="10" max="10" width="16.19921875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>0.65069444444444446</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="10">
         <v>824</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="10">
         <v>867</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="10">
         <v>43</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="13">
         <v>44398</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>102</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>0.66736111111111107</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>0.67986111111111114</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="7">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="F3" s="10">
         <v>128</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="10">
         <v>152</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <v>24</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="13">
         <v>44404</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>103</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>0.61249999999999993</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13">
         <v>44405</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>104</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>0.58402777777777781</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>0.60625000000000007</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>83</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="10">
         <v>134</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="10">
         <v>51</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="13">
         <v>44413</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>201</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>0.54027777777777775</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <v>1025</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="10">
         <v>1138</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="10">
         <v>113</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="13">
         <v>44439</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>105</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>0.62222222222222223</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <v>86</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="10">
         <v>192</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
         <v>106</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="13">
         <v>44440</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>106</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>0.4597222222222222</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <v>63</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="10">
         <v>199</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
         <v>136</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="13">
         <v>44454</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>202</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>0.67152777777777783</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>0.70347222222222217</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
         <v>157</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="10">
         <v>528</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="10">
         <v>371</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="13">
         <v>44466</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>203</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>0.63472222222222219</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>0.65486111111111112</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>62</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="10">
         <v>260</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="10">
         <v>198</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="13">
         <v>44474</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>107</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>0.46249999999999997</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>112</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <v>232</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
         <v>120</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="13">
         <v>44475</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>108</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>0.4680555555555555</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <v>63</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <v>88</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <v>25</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="13">
         <v>44482</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>109</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>0.64722222222222225</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>202</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="10">
         <v>318</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="10">
         <f>G13-F13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="13">
         <v>44487</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>110</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <v>59</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="10">
         <v>108</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="10">
         <v>49</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="13">
         <v>44508</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>204</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>0.46875</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>0.48055555555555557</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="10">
         <v>114</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="10">
         <v>225</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="10">
         <f>SUM(G15-F15)</f>
         <v>111</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="13">
         <v>44512</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>111</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="7">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="F16" s="10">
         <v>170</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="10">
         <v>259</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="10">
         <f>SUM(G16-F16)</f>
         <v>89</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="13">
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>112</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="7">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="C17" s="9">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="10">
         <v>225</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="10">
         <v>351</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="10">
         <f>SUM(G17-F17)</f>
         <v>126</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="13">
         <v>44547</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>205</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <v>0.4152777777777778</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="9">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="10">
         <v>160</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="10">
         <v>189</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="10">
         <f>SUM(G18-F18)</f>
         <v>29</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="13">
         <v>44526</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>206</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.42291666666666666</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="7">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C19" s="7">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.49861111111111112</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="7">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="F19" s="10">
         <v>233</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="10">
         <v>318</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="10">
         <v>85</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="13">
         <v>44568</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>113</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>0.55486111111111114</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>0.56805555555555554</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="10">
         <v>138</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="10">
         <v>491</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="10">
         <f>G20-F20</f>
         <v>353</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="13">
         <v>44571</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>207</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="7">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C21" s="7">
         <v>0.42986111111111108</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>0.44375000000000003</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="10">
         <v>276</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="10">
         <v>585</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="10">
         <f>G21-F21</f>
         <v>309</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="13">
         <v>44578</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>114</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>0.66180555555555554</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>0.6743055555555556</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="10">
         <v>107</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="10">
         <v>179</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="10">
         <f>G22-F22</f>
         <v>72</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="13">
         <v>44572</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>115</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="7">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C23" s="7">
         <v>0.4152777777777778</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>0.42777777777777781</v>
       </c>
-      <c r="E23" s="1">
-        <v>0.47430555555555554</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="7">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F23" s="10">
         <v>187</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="10">
         <v>754</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="10">
         <f t="shared" ref="H23:H54" si="0">G23-F23</f>
         <v>567</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="13">
         <v>44580</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>116</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>0.57708333333333328</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="10">
         <v>170</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="10">
         <v>630</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="10">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="13">
         <v>44585</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>117</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="7">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="7">
         <v>0.55277777777777781</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="7">
         <v>0.56736111111111109</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="7">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="10">
         <v>38</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="10">
         <v>38</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="13">
         <v>44592</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>118</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="7">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="7">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="7">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="10">
         <v>42</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="10">
         <v>438</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="13">
         <v>44606</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>119</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="D27" s="7">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="7">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="10">
         <v>225</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="10">
         <v>322</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="13">
         <v>44608</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>120</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="7">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="10">
         <v>95</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="10">
         <v>188</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="10">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="13">
         <v>44620</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>121</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="7">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="7">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="7">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="10">
         <v>143</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="10">
         <v>234</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="13">
         <v>44622</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>208</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="7">
         <v>0.46319444444444446</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="7">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="7">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="7">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="10">
         <v>38</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="10">
         <v>126</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="10">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="13">
         <v>44659</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>209</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="7">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="C31" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="F31" s="10">
         <v>155</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="10">
         <v>176</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="13">
         <v>44664</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>122</v>
       </c>
-      <c r="B32" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="7">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="C32" s="7">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="7">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="10">
         <v>122</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="10">
         <v>328</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="10">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="13">
         <v>44670</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>210</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="7">
         <v>0.63680555555555551</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="9">
         <v>0.67083333333333339</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="7">
         <v>0.68472222222222223</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <v>0.73541666666666661</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="10">
         <v>1333</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="10">
         <v>1419</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="10">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="13">
         <v>44677</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>211</v>
       </c>
-      <c r="B34" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="7">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C34" s="7">
         <v>0.59583333333333333</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E34" s="1">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="E34" s="7">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F34" s="10">
         <v>414</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="10">
         <v>433</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="13">
         <v>44686</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>212</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="7">
         <v>0.6743055555555556</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="7">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="7">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="7">
         <v>0.75</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="10">
         <v>589</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="10">
         <v>633</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="13">
         <v>44686</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>213</v>
       </c>
-      <c r="B36" s="1">
-        <v>0.53402777777777777</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C36" s="7">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="7">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="7">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="10">
         <v>133</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="10">
         <v>317</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="10">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="13">
         <v>44700</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>123</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="7">
         <v>0.58750000000000002</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="7">
         <v>0.59652777777777777</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="7">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="7">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="10">
         <v>1155</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="10">
         <v>1309</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="10">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="13">
         <v>44701</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>214</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="7">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="7">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="7">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E38" s="1">
-        <v>0.59236111111111112</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="E38" s="7">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F38" s="10">
         <v>686</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="10">
         <v>883</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="10">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="13">
         <v>44706</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>215</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="7">
         <v>0.59791666666666665</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="7">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="7">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="10">
         <v>1526</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="10">
         <v>1648</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="10">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="13">
         <v>44706</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>124</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="7">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="7">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="7">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="7">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="10">
         <v>25</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="10">
         <v>45</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="13">
         <v>44715</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>216</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="7">
         <v>0.62708333333333333</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="7">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="7">
         <v>0.64861111111111114</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="7">
         <v>0.70208333333333339</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="10">
         <v>120</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="10">
         <v>176</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="13">
         <v>44719</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>125</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="7">
         <v>0.41388888888888892</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="7">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="7">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="7">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="10">
         <v>75</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="10">
         <v>199</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="10">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="13">
         <v>44720</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>217</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="7">
         <v>0.47847222222222219</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="7">
         <v>0.48888888888888887</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="7">
         <v>0.50208333333333333</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="7">
         <v>0.52986111111111112</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="10">
         <v>410</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="10">
         <v>449</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="13">
         <v>44725</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>218</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="7">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="7">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="7">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="7">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="10">
         <v>62</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="10">
         <v>149</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="10">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="13">
         <v>44728</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>219</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="7">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="7">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="7">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="7">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="10">
         <v>442</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="10">
         <v>631</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="10">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="13">
         <v>44728</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>126</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="8">
         <v>0.5</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="8">
         <v>0.51180555555555551</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="8">
         <v>0.52638888888888891</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="8">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="10">
         <v>129</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="10">
         <v>394</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="10">
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="13">
         <v>44749</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="K46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>127</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="8">
         <v>0.4291666666666667</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="8">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="8">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="10">
         <v>283</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="10">
         <v>404</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="10">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="13">
         <v>44750</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>128</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="7">
         <v>0.62777777777777777</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="9">
         <v>0.63472222222222219</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="9">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="10">
         <v>23</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="10">
         <v>101</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="10">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="13">
         <v>44768</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="6">
         <v>129</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="9">
         <v>0.65625</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="9">
         <v>0.6875</v>
       </c>
-      <c r="E49" s="5">
-        <v>0.71875</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="E49" s="9">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F49" s="10">
         <v>155</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="10">
         <v>251</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="10">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="13">
         <v>44777</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="6">
         <v>130</v>
       </c>
-      <c r="B50" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="B50" s="7">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C50" s="9">
         <v>0.47152777777777777</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="9">
         <v>0.48541666666666666</v>
       </c>
-      <c r="E50" s="5">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="E50" s="9">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F50" s="10">
         <v>34</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="10">
         <v>175</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="10">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="13">
         <v>44781</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="6">
         <v>131</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="9">
         <v>0.66527777777777775</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="9">
         <v>0.6777777777777777</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="9">
         <v>0.69166666666666676</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="10">
         <v>119</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="10">
         <v>295</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="10">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="13">
         <v>44784</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="6">
         <v>132</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="9">
         <v>0.49652777777777773</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="9">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="9">
         <v>0.51944444444444449</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="9">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="10">
         <v>67</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="10">
         <v>88</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="13">
         <v>44818</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="6">
         <v>133</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="9">
         <v>0.62152777777777779</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="9">
         <v>0.6333333333333333</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="9">
         <v>0.69444444444444453</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="10">
         <v>162</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="10">
         <v>266</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="10">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="13">
         <v>44818</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="6">
         <v>134</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="9">
         <v>0.66527777777777775</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="9">
         <v>0.67569444444444438</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="9">
         <v>0.69027777777777777</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="9">
         <v>0.73749999999999993</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="10">
         <v>43</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="10">
         <v>157</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="10">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="13">
         <v>44823</v>
       </c>
+      <c r="K54" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
     </row>
     <row r="113" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
     </row>
     <row r="115" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
     </row>
     <row r="116" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
     </row>
     <row r="117" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
     </row>
     <row r="119" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
     </row>
     <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
     </row>
     <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
     </row>
     <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
     </row>
     <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
     </row>
     <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
     </row>
     <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
     </row>
     <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
     </row>
     <row r="141" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
     </row>
     <row r="142" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
     </row>
     <row r="143" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8478,6 +8617,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId68" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{10542DDB-8A6B-485A-A73E-EB7B956D7431}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5B06A5D9-129B-454D-8896-2794F66DD2F2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID participant</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>no steps</t>
+  </si>
+  <si>
+    <t>11:20:00</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -178,6 +181,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -404,7 +411,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,6 +450,22 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2814,8 +2837,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2881,8 +2904,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2948,8 +2971,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3015,8 +3038,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3082,8 +3105,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3149,8 +3172,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3216,8 +3239,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3283,8 +3306,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3350,8 +3373,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3417,8 +3440,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3484,8 +3507,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3551,8 +3574,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3618,8 +3641,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3685,8 +3708,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3752,8 +3775,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3819,8 +3842,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3886,8 +3909,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3953,8 +3976,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4020,8 +4043,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4087,8 +4110,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4154,8 +4177,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4221,8 +4244,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4809,6 +4832,254 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E4BA96-874A-4EA6-BD46-E4EF5229E9F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B924131-C440-4F14-B962-E3DD4B619BC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8C4722-0BC6-4BDF-8A16-A822A2E6489D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70242BD-E5DE-4A18-8169-9DE8C510B69F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5115,8 +5386,8 @@
   <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A46:XFD54"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6737,7 +7008,7 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="E54" s="9">
-        <v>0.73749999999999993</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="F54" s="10">
         <v>43</v>
@@ -6752,19 +7023,44 @@
       <c r="I54" s="13">
         <v>44823</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>220</v>
+      </c>
+      <c r="B55" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
+      <c r="I55" s="13">
+        <v>44833</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>221</v>
+      </c>
+      <c r="B56" s="9">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
+      <c r="I56" s="13">
+        <v>44833</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F57" s="10"/>
@@ -8639,6 +8935,94 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId69" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1094" r:id="rId70" name="Check Box 70">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1095" r:id="rId71" name="Check Box 71">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1096" r:id="rId72" name="Check Box 72">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5B06A5D9-129B-454D-8896-2794F66DD2F2}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{551DF526-2E11-418F-8EB2-CABADEAD884F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID participant</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>11:20:00</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>13:19:00</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -181,7 +187,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -459,7 +464,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,6 +472,18 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2435,8 +2452,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>193702</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2837,8 +2854,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2904,8 +2921,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2971,8 +2988,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3038,8 +3055,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3105,8 +3122,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3172,8 +3189,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3239,8 +3256,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3306,8 +3323,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3373,8 +3390,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3440,8 +3457,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3507,8 +3524,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3574,8 +3591,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3641,8 +3658,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3708,8 +3725,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3775,8 +3792,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3842,8 +3859,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3909,8 +3926,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3976,8 +3993,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4043,8 +4060,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4110,8 +4127,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4177,8 +4194,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4244,8 +4261,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4837,14 +4854,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
@@ -4853,7 +4875,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E4BA96-874A-4EA6-BD46-E4EF5229E9F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4893,20 +4915,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
@@ -4915,7 +4942,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B924131-C440-4F14-B962-E3DD4B619BC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4955,20 +4982,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
@@ -4977,7 +5009,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8C4722-0BC6-4BDF-8A16-A822A2E6489D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5017,6 +5049,135 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1218648" cy="201322"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305F1EB0-C714-459D-BF42-2F08C0B33671}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -5030,16 +5191,78 @@
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:ext cx="1218648" cy="201322"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1096"/>
+                  <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70242BD-E5DE-4A18-8169-9DE8C510B69F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F85B42-79B4-40FF-8223-644DB516662A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1218648" cy="201323"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5951B7F-79A7-4BB1-B554-317342342886}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5385,9 +5608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6078,7 +6301,7 @@
         <v>754</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" ref="H23:H54" si="0">G23-F23</f>
+        <f t="shared" ref="H23:H57" si="0">G23-F23</f>
         <v>567</v>
       </c>
       <c r="I23" s="13">
@@ -7008,7 +7231,7 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="E54" s="9">
-        <v>0.72986111111111107</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="F54" s="10">
         <v>43</v>
@@ -7034,13 +7257,22 @@
       <c r="C55" s="9">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
+      <c r="D55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="F55" s="10">
+        <v>388</v>
+      </c>
+      <c r="G55" s="10">
+        <v>485</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
       <c r="I55" s="13">
         <v>44833</v>
       </c>
@@ -7052,20 +7284,58 @@
       <c r="B56" s="9">
         <v>0.47916666666666669</v>
       </c>
+      <c r="C56" s="9">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.50138888888888888</v>
+      </c>
       <c r="E56" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="F56" s="10">
+        <v>637</v>
+      </c>
+      <c r="G56" s="10">
+        <v>778</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
       <c r="I56" s="13">
         <v>44833</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="A57" s="6">
+        <v>135</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="F57" s="10">
+        <v>203</v>
+      </c>
+      <c r="G57" s="10">
+        <v>310</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="I57" s="13">
+        <v>44848</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F58" s="10"/>
@@ -9023,6 +9293,72 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1097" r:id="rId73" name="Check Box 73">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1098" r:id="rId74" name="Check Box 74">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1099" r:id="rId75" name="Check Box 75">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{551DF526-2E11-418F-8EB2-CABADEAD884F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9BB86C-66CD-44C0-8E2C-A724E89FCF67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID participant</t>
   </si>
@@ -69,22 +69,15 @@
     <t>no steps</t>
   </si>
   <si>
-    <t>11:20:00</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>13:19:00</t>
+    <t>Mid Interview -5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -172,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -180,16 +173,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,7 +479,63 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -501,13 +549,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -568,13 +616,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -635,13 +683,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -702,13 +750,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -769,13 +817,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -836,13 +884,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -903,13 +951,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -970,13 +1018,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1037,13 +1085,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1104,13 +1152,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1171,13 +1219,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1238,13 +1286,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1305,13 +1353,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1372,13 +1420,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1439,13 +1487,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1506,13 +1554,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1573,13 +1621,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1640,13 +1688,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1707,13 +1755,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1774,13 +1822,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1841,13 +1889,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1908,13 +1956,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1975,13 +2023,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2042,13 +2090,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2109,13 +2157,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2176,13 +2224,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2243,13 +2291,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2310,13 +2358,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2377,13 +2425,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2444,16 +2492,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>193702</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2511,13 +2559,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2578,13 +2626,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2645,13 +2693,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2712,13 +2760,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2779,13 +2827,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2846,16 +2894,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2913,16 +2961,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2980,16 +3028,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3047,16 +3095,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3114,16 +3162,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3181,16 +3229,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3248,16 +3296,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3315,16 +3363,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3382,16 +3430,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3449,16 +3497,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3516,16 +3564,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3583,16 +3631,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3650,16 +3698,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3717,16 +3765,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3784,16 +3832,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3851,16 +3899,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3918,16 +3966,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3985,16 +4033,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4052,16 +4100,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4119,16 +4167,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4186,16 +4234,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4253,16 +4301,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4320,13 +4368,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4387,13 +4435,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4454,13 +4502,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4521,13 +4569,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4588,13 +4636,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4655,13 +4703,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4722,13 +4770,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4789,13 +4837,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4856,16 +4904,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4923,16 +4971,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4990,16 +5038,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5057,16 +5105,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5122,14 +5170,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1218648" cy="201322"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
@@ -5138,7 +5191,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305F1EB0-C714-459D-BF42-2F08C0B33671}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5178,20 +5231,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1218648" cy="201322"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -5200,7 +5258,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F85B42-79B4-40FF-8223-644DB516662A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5240,20 +5298,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1218648" cy="201323"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
@@ -5262,7 +5325,7 @@
                   <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5951B7F-79A7-4BB1-B554-317342342886}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5302,7 +5365,945 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5606,11 +6607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5618,17 +6619,17 @@
     <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" style="6"/>
-    <col min="10" max="10" width="16.19921875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" style="3"/>
+    <col min="4" max="5" width="19.296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" style="6"/>
+    <col min="11" max="11" width="16.19921875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5642,498 +6643,565 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>0.65069444444444446</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
+        <f t="shared" ref="E2:E38" si="0">(F2-D2)/2+D2-TIME(0,5,0)</f>
+        <v>0.69895833333333324</v>
+      </c>
+      <c r="F2" s="9">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="7">
         <v>824</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="7">
         <v>867</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="7">
         <v>43</v>
       </c>
-      <c r="I2" s="13">
+      <c r="J2" s="8">
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>102</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>0.66736111111111107</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>0.67986111111111114</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
+        <f t="shared" si="0"/>
+        <v>0.71215277777777786</v>
+      </c>
+      <c r="F3" s="9">
         <v>0.75138888888888899</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="7">
         <v>128</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="7">
         <v>152</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="7">
         <v>24</v>
       </c>
-      <c r="I3" s="13">
+      <c r="J3" s="8">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>103</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>0.61249999999999993</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="F4" s="9">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="13">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8">
         <v>44405</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>104</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>0.58402777777777781</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>0.60625000000000007</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.64618055555555565</v>
+      </c>
+      <c r="F5" s="9">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="7">
         <v>83</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="7">
         <v>134</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="7">
         <v>51</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="8">
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>201</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>0.54027777777777775</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.57326388888888891</v>
+      </c>
+      <c r="F6" s="9">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="7">
         <v>1025</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="7">
         <v>1138</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="7">
         <v>113</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="8">
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>105</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>0.62222222222222223</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F7" s="9">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="7">
         <v>86</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="7">
         <v>192</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="7">
         <v>106</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="8">
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>106</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>0.4597222222222222</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.48194444444444451</v>
+      </c>
+      <c r="F8" s="9">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="7">
         <v>63</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="7">
         <v>199</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="7">
         <v>136</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J8" s="8">
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>202</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>0.67152777777777783</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>0.70347222222222217</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74062499999999998</v>
+      </c>
+      <c r="F9" s="9">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="7">
         <v>157</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="7">
         <v>528</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="7">
         <v>371</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J9" s="8">
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>203</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>0.63472222222222219</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>0.65486111111111112</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.67465277777777777</v>
+      </c>
+      <c r="F10" s="9">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="7">
         <v>62</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="7">
         <v>260</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="7">
         <v>198</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J10" s="8">
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>107</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>0.46249999999999997</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.51597222222222228</v>
+      </c>
+      <c r="F11" s="9">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="7">
         <v>112</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="7">
         <v>232</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="7">
         <v>120</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J11" s="8">
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>108</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>0.4680555555555555</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5097222222222223</v>
+      </c>
+      <c r="F12" s="9">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="7">
         <v>63</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="7">
         <v>88</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="7">
         <v>25</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="8">
         <v>44482</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>109</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>0.64722222222222225</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6850694444444444</v>
+      </c>
+      <c r="F13" s="9">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="7">
         <v>202</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="7">
         <v>318</v>
       </c>
-      <c r="H13" s="10">
-        <f>G13-F13</f>
+      <c r="I13" s="7">
+        <f>H13-G13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J13" s="8">
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>110</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60486111111111107</v>
+      </c>
+      <c r="F14" s="9">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="7">
         <v>59</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="7">
         <v>108</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="7">
         <v>49</v>
       </c>
-      <c r="I14" s="13">
+      <c r="J14" s="8">
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>204</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>0.46875</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>0.48055555555555557</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="F15" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G15" s="7">
         <v>114</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="7">
         <v>225</v>
       </c>
-      <c r="H15" s="10">
-        <f>SUM(G15-F15)</f>
+      <c r="I15" s="7">
+        <f>SUM(H15-G15)</f>
         <v>111</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="8">
         <v>44512</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>111</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.68888888888888877</v>
+      </c>
+      <c r="F16" s="9">
         <v>0.70694444444444438</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G16" s="7">
         <v>170</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="7">
         <v>259</v>
       </c>
-      <c r="H16" s="10">
-        <f>SUM(G16-F16)</f>
+      <c r="I16" s="7">
+        <f>SUM(H16-G16)</f>
         <v>89</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J16" s="8">
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>112</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>0.42083333333333334</v>
       </c>
       <c r="C17" s="9">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="F17" s="9">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="7">
         <v>225</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="7">
         <v>351</v>
       </c>
-      <c r="H17" s="10">
-        <f>SUM(G17-F17)</f>
+      <c r="I17" s="7">
+        <f>SUM(H17-G17)</f>
         <v>126</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="8">
         <v>44547</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>205</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>0.4152777777777778</v>
       </c>
       <c r="C18" s="9">
@@ -6142,903 +7210,1023 @@
       <c r="D18" s="9">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F18" s="9">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G18" s="7">
         <v>160</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="7">
         <v>189</v>
       </c>
-      <c r="H18" s="10">
-        <f>SUM(G18-F18)</f>
+      <c r="I18" s="7">
+        <f>SUM(H18-G18)</f>
         <v>29</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J18" s="8">
         <v>44526</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>206</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.46840277777777778</v>
+      </c>
+      <c r="F19" s="9">
         <v>0.49513888888888885</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G19" s="7">
         <v>233</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H19" s="7">
         <v>318</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="7">
         <v>85</v>
       </c>
-      <c r="I19" s="13">
+      <c r="J19" s="8">
         <v>44568</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>113</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>0.55486111111111114</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>0.56805555555555554</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58541666666666659</v>
+      </c>
+      <c r="F20" s="9">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="7">
         <v>138</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="7">
         <v>491</v>
       </c>
-      <c r="H20" s="10">
-        <f>G20-F20</f>
+      <c r="I20" s="7">
+        <f>H20-G20</f>
         <v>353</v>
       </c>
-      <c r="I20" s="13">
+      <c r="J20" s="8">
         <v>44571</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>207</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>0.41736111111111113</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>0.42986111111111108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>0.44375000000000003</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47534722222222225</v>
+      </c>
+      <c r="F21" s="9">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="7">
         <v>276</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="7">
         <v>585</v>
       </c>
-      <c r="H21" s="10">
-        <f>G21-F21</f>
+      <c r="I21" s="7">
+        <f>H21-G21</f>
         <v>309</v>
       </c>
-      <c r="I21" s="13">
+      <c r="J21" s="8">
         <v>44578</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>114</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>0.66180555555555554</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>0.6743055555555556</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69652777777777786</v>
+      </c>
+      <c r="F22" s="9">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F22" s="10">
+      <c r="G22" s="7">
         <v>107</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="7">
         <v>179</v>
       </c>
-      <c r="H22" s="10">
-        <f>G22-F22</f>
+      <c r="I22" s="7">
+        <f>H22-G22</f>
         <v>72</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="8">
         <v>44572</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>115</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>0.38750000000000001</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>0.4152777777777778</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>0.42777777777777781</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.44652777777777786</v>
+      </c>
+      <c r="F23" s="9">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="7">
         <v>187</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="7">
         <v>754</v>
       </c>
-      <c r="H23" s="10">
-        <f t="shared" ref="H23:H57" si="0">G23-F23</f>
+      <c r="I23" s="7">
+        <f t="shared" ref="I23:I72" si="1">H23-G23</f>
         <v>567</v>
       </c>
-      <c r="I23" s="13">
+      <c r="J23" s="8">
         <v>44580</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>116</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <v>0.57708333333333328</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60104166666666659</v>
+      </c>
+      <c r="F24" s="9">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G24" s="7">
         <v>170</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H24" s="7">
         <v>630</v>
       </c>
-      <c r="H24" s="10">
-        <f t="shared" si="0"/>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="I24" s="13">
+      <c r="J24" s="8">
         <v>44585</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>117</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>0.55277777777777781</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <v>0.56736111111111109</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="F25" s="9">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F25" s="10">
+      <c r="G25" s="7">
         <v>38</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H25" s="7">
         <v>38</v>
       </c>
-      <c r="H25" s="10">
-        <f t="shared" si="0"/>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="J25" s="8">
         <v>44592</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>118</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="F26" s="9">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F26" s="10">
+      <c r="G26" s="7">
         <v>42</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="7">
         <v>438</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="0"/>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
-      <c r="I26" s="13">
+      <c r="J26" s="8">
         <v>44606</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>119</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <v>0.46875</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="F27" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G27" s="7">
         <v>225</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="7">
         <v>322</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="0"/>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I27" s="13">
+      <c r="J27" s="8">
         <v>44608</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>120</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63993055555555556</v>
+      </c>
+      <c r="F28" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F28" s="10">
+      <c r="G28" s="7">
         <v>95</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="7">
         <v>188</v>
       </c>
-      <c r="H28" s="10">
-        <f t="shared" si="0"/>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="I28" s="13">
+      <c r="J28" s="8">
         <v>44620</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>121</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F29" s="9">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F29" s="10">
+      <c r="G29" s="7">
         <v>143</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H29" s="7">
         <v>234</v>
       </c>
-      <c r="H29" s="10">
-        <f t="shared" si="0"/>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="I29" s="13">
+      <c r="J29" s="8">
         <v>44622</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>208</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>0.46319444444444446</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F30" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G30" s="7">
         <v>38</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="7">
         <v>126</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" si="0"/>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="I30" s="13">
+      <c r="J30" s="8">
         <v>44659</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>209</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="9">
         <v>0.4597222222222222</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <v>0.4777777777777778</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49895833333333339</v>
+      </c>
+      <c r="F31" s="9">
         <v>0.52708333333333335</v>
       </c>
-      <c r="F31" s="10">
+      <c r="G31" s="7">
         <v>155</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="7">
         <v>176</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="0"/>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I31" s="13">
+      <c r="J31" s="8">
         <v>44664</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>122</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>0.62430555555555556</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.67951388888888886</v>
+      </c>
+      <c r="F32" s="9">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F32" s="10">
+      <c r="G32" s="7">
         <v>122</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="7">
         <v>328</v>
       </c>
-      <c r="H32" s="10">
-        <f t="shared" si="0"/>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="I32" s="13">
+      <c r="J32" s="8">
         <v>44670</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>210</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>0.63680555555555551</v>
       </c>
       <c r="C33" s="9">
         <v>0.67083333333333339</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>0.68472222222222223</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70659722222222221</v>
+      </c>
+      <c r="F33" s="9">
         <v>0.73541666666666661</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="7">
         <v>1333</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="7">
         <v>1419</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" si="0"/>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="I33" s="13">
+      <c r="J33" s="8">
         <v>44677</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>211</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>0.58124999999999993</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="9">
         <v>0.59583333333333333</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="F34" s="9">
         <v>0.6694444444444444</v>
       </c>
-      <c r="F34" s="10">
+      <c r="G34" s="7">
         <v>414</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="7">
         <v>433</v>
       </c>
-      <c r="H34" s="10">
-        <f t="shared" si="0"/>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I34" s="13">
+      <c r="J34" s="8">
         <v>44686</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>212</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>0.6743055555555556</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="F35" s="9">
         <v>0.75</v>
       </c>
-      <c r="F35" s="10">
+      <c r="G35" s="7">
         <v>589</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="7">
         <v>633</v>
       </c>
-      <c r="H35" s="10">
-        <f t="shared" si="0"/>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I35" s="13">
+      <c r="J35" s="8">
         <v>44686</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>213</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="F36" s="9">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="7">
         <v>133</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="7">
         <v>317</v>
       </c>
-      <c r="H36" s="10">
-        <f t="shared" si="0"/>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="I36" s="13">
+      <c r="J36" s="8">
         <v>44700</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>123</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>0.58750000000000002</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>0.59652777777777777</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.62534722222222228</v>
+      </c>
+      <c r="F37" s="9">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F37" s="10">
+      <c r="G37" s="7">
         <v>1155</v>
       </c>
-      <c r="G37" s="10">
+      <c r="H37" s="7">
         <v>1309</v>
       </c>
-      <c r="H37" s="10">
-        <f t="shared" si="0"/>
+      <c r="I37" s="7">
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="I37" s="13">
+      <c r="J37" s="8">
         <v>44701</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>214</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="9">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="9">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="9">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F38" s="9">
         <v>0.5854166666666667</v>
       </c>
-      <c r="F38" s="10">
+      <c r="G38" s="7">
         <v>686</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="7">
         <v>883</v>
       </c>
-      <c r="H38" s="10">
-        <f t="shared" si="0"/>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="I38" s="13">
+      <c r="J38" s="8">
         <v>44706</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>215</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="9">
         <v>0.59791666666666665</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="9">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="9">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="9">
+        <f>(F39-D39)/2+D39-TIME(0,5,0)</f>
+        <v>0.65104166666666663</v>
+      </c>
+      <c r="F39" s="9">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F39" s="10">
+      <c r="G39" s="7">
         <v>1526</v>
       </c>
-      <c r="G39" s="10">
+      <c r="H39" s="7">
         <v>1648</v>
       </c>
-      <c r="H39" s="10">
-        <f t="shared" si="0"/>
+      <c r="I39" s="7">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="I39" s="13">
+      <c r="J39" s="8">
         <v>44706</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>124</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="9">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="9">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="9">
+        <f t="shared" ref="E40:E62" si="2">(F40-D40)/2+D40-TIME(0,5,0)</f>
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="F40" s="9">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F40" s="10">
+      <c r="G40" s="7">
         <v>25</v>
       </c>
-      <c r="G40" s="10">
+      <c r="H40" s="7">
         <v>45</v>
       </c>
-      <c r="H40" s="10">
-        <f t="shared" si="0"/>
+      <c r="I40" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I40" s="13">
+      <c r="J40" s="8">
         <v>44715</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>216</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="9">
         <v>0.62708333333333333</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="9">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="9">
         <v>0.64861111111111114</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67187500000000011</v>
+      </c>
+      <c r="F41" s="9">
         <v>0.70208333333333339</v>
       </c>
-      <c r="F41" s="10">
+      <c r="G41" s="7">
         <v>120</v>
       </c>
-      <c r="G41" s="10">
+      <c r="H41" s="7">
         <v>176</v>
       </c>
-      <c r="H41" s="10">
-        <f t="shared" si="0"/>
+      <c r="I41" s="7">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="I41" s="13">
+      <c r="J41" s="8">
         <v>44719</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>125</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="9">
         <v>0.41388888888888892</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="9">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="9">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="9">
+        <f t="shared" si="2"/>
+        <v>0.45868055555555554</v>
+      </c>
+      <c r="F42" s="9">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F42" s="10">
+      <c r="G42" s="7">
         <v>75</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="7">
         <v>199</v>
       </c>
-      <c r="H42" s="10">
-        <f t="shared" si="0"/>
+      <c r="I42" s="7">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="I42" s="13">
+      <c r="J42" s="8">
         <v>44720</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>217</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="9">
         <v>0.47847222222222219</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="9">
         <v>0.48888888888888887</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="9">
         <v>0.50208333333333333</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="9">
+        <f t="shared" si="2"/>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F43" s="9">
         <v>0.52986111111111112</v>
       </c>
-      <c r="F43" s="10">
+      <c r="G43" s="7">
         <v>410</v>
       </c>
-      <c r="G43" s="10">
+      <c r="H43" s="7">
         <v>449</v>
       </c>
-      <c r="H43" s="10">
-        <f t="shared" si="0"/>
+      <c r="I43" s="7">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I43" s="13">
+      <c r="J43" s="8">
         <v>44725</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>218</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="9">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="9">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="9">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="9">
+        <f t="shared" si="2"/>
+        <v>0.38020833333333337</v>
+      </c>
+      <c r="F44" s="9">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F44" s="10">
+      <c r="G44" s="7">
         <v>62</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H44" s="7">
         <v>149</v>
       </c>
-      <c r="H44" s="10">
-        <f t="shared" si="0"/>
+      <c r="I44" s="7">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="I44" s="13">
+      <c r="J44" s="8">
         <v>44728</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>219</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="9">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="9">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="9">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="9">
+        <f t="shared" si="2"/>
+        <v>0.45763888888888893</v>
+      </c>
+      <c r="F45" s="9">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F45" s="10">
+      <c r="G45" s="7">
         <v>442</v>
       </c>
-      <c r="G45" s="10">
+      <c r="H45" s="7">
         <v>631</v>
       </c>
-      <c r="H45" s="10">
-        <f t="shared" si="0"/>
+      <c r="I45" s="7">
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="I45" s="13">
+      <c r="J45" s="8">
         <v>44728</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>126</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>0.5</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>0.51180555555555551</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>0.52638888888888891</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
+        <f t="shared" si="2"/>
+        <v>0.54131944444444446</v>
+      </c>
+      <c r="F46" s="9">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F46" s="10">
+      <c r="G46" s="7">
         <v>129</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="7">
         <v>394</v>
       </c>
-      <c r="H46" s="10">
-        <f t="shared" si="0"/>
+      <c r="I46" s="7">
+        <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="I46" s="13">
+      <c r="J46" s="8">
         <v>44749</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>127</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="9">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>0.4291666666666667</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
+        <f t="shared" si="2"/>
+        <v>0.46909722222222222</v>
+      </c>
+      <c r="F47" s="9">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F47" s="10">
+      <c r="G47" s="7">
         <v>283</v>
       </c>
-      <c r="G47" s="10">
+      <c r="H47" s="7">
         <v>404</v>
       </c>
-      <c r="H47" s="10">
-        <f t="shared" si="0"/>
+      <c r="I47" s="7">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="I47" s="13">
+      <c r="J47" s="8">
         <v>44750</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>128</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="9">
         <v>0.62777777777777777</v>
       </c>
       <c r="C48" s="9">
@@ -7048,23 +8236,27 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="E48" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F48" s="9">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F48" s="10">
+      <c r="G48" s="7">
         <v>23</v>
       </c>
-      <c r="G48" s="10">
+      <c r="H48" s="7">
         <v>101</v>
       </c>
-      <c r="H48" s="10">
-        <f t="shared" si="0"/>
+      <c r="I48" s="7">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="I48" s="13">
+      <c r="J48" s="8">
         <v>44768</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>129</v>
       </c>
@@ -7078,27 +8270,31 @@
         <v>0.6875</v>
       </c>
       <c r="E49" s="9">
+        <f t="shared" si="2"/>
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="F49" s="9">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F49" s="10">
+      <c r="G49" s="7">
         <v>155</v>
       </c>
-      <c r="G49" s="10">
+      <c r="H49" s="7">
         <v>251</v>
       </c>
-      <c r="H49" s="10">
-        <f t="shared" si="0"/>
+      <c r="I49" s="7">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="I49" s="13">
+      <c r="J49" s="8">
         <v>44777</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>130</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="9">
         <v>0.4548611111111111</v>
       </c>
       <c r="C50" s="9">
@@ -7108,23 +8304,27 @@
         <v>0.48541666666666666</v>
       </c>
       <c r="E50" s="9">
+        <f t="shared" si="2"/>
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="F50" s="9">
         <v>0.5229166666666667</v>
       </c>
-      <c r="F50" s="10">
+      <c r="G50" s="7">
         <v>34</v>
       </c>
-      <c r="G50" s="10">
+      <c r="H50" s="7">
         <v>175</v>
       </c>
-      <c r="H50" s="10">
-        <f t="shared" si="0"/>
+      <c r="I50" s="7">
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="I50" s="13">
+      <c r="J50" s="8">
         <v>44781</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>131</v>
       </c>
@@ -7138,23 +8338,27 @@
         <v>0.69166666666666676</v>
       </c>
       <c r="E51" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71631944444444451</v>
+      </c>
+      <c r="F51" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F51" s="10">
+      <c r="G51" s="7">
         <v>119</v>
       </c>
-      <c r="G51" s="10">
+      <c r="H51" s="7">
         <v>295</v>
       </c>
-      <c r="H51" s="10">
-        <f t="shared" si="0"/>
+      <c r="I51" s="7">
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="I51" s="13">
+      <c r="J51" s="8">
         <v>44784</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>132</v>
       </c>
@@ -7168,26 +8372,30 @@
         <v>0.51944444444444449</v>
       </c>
       <c r="E52" s="9">
+        <f t="shared" si="2"/>
+        <v>0.5409722222222223</v>
+      </c>
+      <c r="F52" s="9">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F52" s="10">
+      <c r="G52" s="7">
         <v>67</v>
       </c>
-      <c r="G52" s="10">
+      <c r="H52" s="7">
         <v>88</v>
       </c>
-      <c r="H52" s="10">
-        <f t="shared" si="0"/>
+      <c r="I52" s="7">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I52" s="13">
+      <c r="J52" s="8">
         <v>44818</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>133</v>
       </c>
@@ -7201,23 +8409,27 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="E53" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66770833333333346</v>
+      </c>
+      <c r="F53" s="9">
         <v>0.69444444444444453</v>
       </c>
-      <c r="F53" s="10">
+      <c r="G53" s="7">
         <v>162</v>
       </c>
-      <c r="G53" s="10">
+      <c r="H53" s="7">
         <v>266</v>
       </c>
-      <c r="H53" s="10">
-        <f t="shared" si="0"/>
+      <c r="I53" s="7">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="I53" s="13">
+      <c r="J53" s="8">
         <v>44818</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>134</v>
       </c>
@@ -7231,23 +8443,27 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="E54" s="9">
+        <f t="shared" si="2"/>
+        <v>0.70520833333333333</v>
+      </c>
+      <c r="F54" s="9">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F54" s="10">
+      <c r="G54" s="7">
         <v>43</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="7">
         <v>157</v>
       </c>
-      <c r="H54" s="10">
-        <f t="shared" si="0"/>
+      <c r="I54" s="7">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="I54" s="13">
+      <c r="J54" s="8">
         <v>44823</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>220</v>
       </c>
@@ -7257,27 +8473,31 @@
       <c r="C55" s="9">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="10">
+      <c r="D55" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="E55" s="9">
+        <f>(F55-D55)/2+D55-TIME(0,5,0)</f>
+        <v>0.45138888888888895</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G55" s="7">
         <v>388</v>
       </c>
-      <c r="G55" s="10">
+      <c r="H55" s="7">
         <v>485</v>
       </c>
-      <c r="H55" s="10">
-        <f t="shared" si="0"/>
+      <c r="I55" s="7">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I55" s="13">
+      <c r="J55" s="8">
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>221</v>
       </c>
@@ -7291,481 +8511,929 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="E56" s="9">
+        <f t="shared" si="2"/>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F56" s="9">
         <v>0.53055555555555556</v>
       </c>
-      <c r="F56" s="10">
+      <c r="G56" s="7">
         <v>637</v>
       </c>
-      <c r="G56" s="10">
+      <c r="H56" s="7">
         <v>778</v>
       </c>
-      <c r="H56" s="10">
-        <f t="shared" si="0"/>
+      <c r="I56" s="7">
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="I56" s="13">
+      <c r="J56" s="8">
         <v>44833</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>135</v>
       </c>
       <c r="B57" s="9">
         <v>0.53402777777777777</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>16</v>
+      <c r="C57" s="9">
+        <v>0.55486111111111114</v>
       </c>
       <c r="D57" s="9">
         <v>0.56874999999999998</v>
       </c>
       <c r="E57" s="9">
+        <f t="shared" si="2"/>
+        <v>0.58854166666666663</v>
+      </c>
+      <c r="F57" s="9">
         <v>0.61527777777777781</v>
       </c>
-      <c r="F57" s="10">
+      <c r="G57" s="7">
         <v>203</v>
       </c>
-      <c r="G57" s="10">
+      <c r="H57" s="7">
         <v>310</v>
       </c>
-      <c r="H57" s="10">
-        <f t="shared" si="0"/>
+      <c r="I57" s="7">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="I57" s="13">
+      <c r="J57" s="8">
         <v>44848</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>136</v>
+      </c>
+      <c r="B58" s="9">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71979166666666672</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="G58" s="7">
+        <v>163</v>
+      </c>
+      <c r="H58" s="7">
+        <v>384</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="J58" s="8">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>222</v>
+      </c>
+      <c r="B59" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" si="2"/>
+        <v>0.38715277777777779</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="G59" s="7">
+        <v>265</v>
+      </c>
+      <c r="H59" s="7">
+        <v>532</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="J59" s="8">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>223</v>
+      </c>
+      <c r="B60" s="9">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="2"/>
+        <v>0.59756944444444449</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="G60" s="7">
+        <v>51</v>
+      </c>
+      <c r="H60" s="7">
+        <v>113</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="J60" s="8">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>137</v>
+      </c>
+      <c r="B61" s="9">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="C61" s="9">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66493055555555558</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="G61" s="7">
+        <v>70</v>
+      </c>
+      <c r="H61" s="7">
+        <v>113</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J61" s="8">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>224</v>
+      </c>
+      <c r="B62" s="9">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="F62" s="9">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="G62" s="7">
+        <v>109</v>
+      </c>
+      <c r="H62" s="7">
+        <v>261</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="J62" s="8">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>225</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="C63" s="9">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" ref="E63:E72" si="3">(F63-D63)/2+D63-TIME(0,5,0)</f>
+        <v>0.69513888888888897</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="G63" s="7">
+        <v>291</v>
+      </c>
+      <c r="H63" s="7">
+        <v>838</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" si="1"/>
+        <v>547</v>
+      </c>
+      <c r="J63" s="8">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>226</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C64" s="9">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="E64" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="G64" s="7">
+        <v>310</v>
+      </c>
+      <c r="H64" s="7">
+        <v>418</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="J64" s="8">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>227</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="C65" s="9">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="E65" s="9">
+        <f t="shared" si="3"/>
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G65" s="7">
+        <v>79</v>
+      </c>
+      <c r="H65" s="7">
+        <v>152</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="J65" s="8">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>138</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="C66" s="9">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="E66" s="9">
+        <f t="shared" si="3"/>
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="G66" s="7">
+        <v>93</v>
+      </c>
+      <c r="H66" s="7">
+        <v>151</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="J66" s="8">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>139</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="E67" s="9">
+        <f t="shared" si="3"/>
+        <v>0.67326388888888888</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="G67" s="7">
+        <v>18</v>
+      </c>
+      <c r="H67" s="7">
+        <v>28</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J67" s="8">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>140</v>
+      </c>
+      <c r="B68" s="10">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C68" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E68" s="9">
+        <f t="shared" si="3"/>
+        <v>0.45868055555555559</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G68" s="7">
+        <v>93</v>
+      </c>
+      <c r="H68" s="7">
+        <v>192</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="J68" s="8">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>228</v>
+      </c>
+      <c r="B69" s="10">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="C69" s="10">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="E69" s="9">
+        <f t="shared" si="3"/>
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="G69" s="7">
+        <v>117</v>
+      </c>
+      <c r="H69" s="7">
+        <v>234</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="J69" s="8">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>141</v>
+      </c>
+      <c r="B70" s="10">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C70" s="10">
+        <v>0.46875</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E70" s="9">
+        <f t="shared" si="3"/>
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="G70" s="7">
+        <v>163</v>
+      </c>
+      <c r="H70" s="7">
+        <v>254</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="J70" s="8">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>229</v>
+      </c>
+      <c r="B71" s="11">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C71" s="10">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="E71" s="9">
+        <f t="shared" si="3"/>
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G71" s="7">
+        <v>315</v>
+      </c>
+      <c r="H71" s="7">
+        <v>659</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="J71" s="8">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>230</v>
+      </c>
+      <c r="B72" s="11">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E72" s="9">
+        <f t="shared" si="3"/>
+        <v>0.41770833333333335</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="G72" s="7">
+        <v>136</v>
+      </c>
+      <c r="H72" s="7">
+        <v>307</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="J72" s="8">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+    </row>
+    <row r="144" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7781,13 +9449,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7803,13 +9471,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7825,13 +9493,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7847,13 +9515,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7869,13 +9537,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7891,13 +9559,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7913,13 +9581,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7935,13 +9603,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7957,13 +9625,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -7979,13 +9647,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8001,13 +9669,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8023,13 +9691,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8045,13 +9713,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8067,13 +9735,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8089,13 +9757,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8111,13 +9779,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8133,13 +9801,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8155,13 +9823,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8177,13 +9845,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8199,13 +9867,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8221,13 +9889,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8243,13 +9911,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8265,13 +9933,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8287,13 +9955,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8309,13 +9977,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8331,13 +9999,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8353,13 +10021,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8375,13 +10043,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8397,13 +10065,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8419,13 +10087,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8441,13 +10109,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8463,13 +10131,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8485,13 +10153,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8507,13 +10175,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8529,13 +10197,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8551,13 +10219,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8573,13 +10241,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8595,13 +10263,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8617,13 +10285,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8639,13 +10307,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8661,13 +10329,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8683,13 +10351,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8705,13 +10373,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8727,13 +10395,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8749,13 +10417,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8771,13 +10439,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8793,13 +10461,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8815,13 +10483,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8837,13 +10505,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8859,13 +10527,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8881,13 +10549,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8903,13 +10571,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8925,13 +10593,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8947,13 +10615,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8969,13 +10637,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -8991,13 +10659,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9013,13 +10681,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9035,13 +10703,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9057,13 +10725,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9079,13 +10747,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9101,13 +10769,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9123,13 +10791,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9145,13 +10813,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9167,13 +10835,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9189,13 +10857,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9211,16 +10879,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9233,16 +10901,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9255,16 +10923,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9277,16 +10945,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9299,13 +10967,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9321,13 +10989,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9343,15 +11011,323 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId76" name="Check Box 76">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1101" r:id="rId77" name="Check Box 77">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1102" r:id="rId78" name="Check Box 78">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId79" name="Check Box 79">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId80" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1105" r:id="rId81" name="Check Box 81">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1106" r:id="rId82" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1107" r:id="rId83" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId84" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId85" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1110" r:id="rId86" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1120" r:id="rId87" name="Check Box 96">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1121" r:id="rId88" name="Check Box 97">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>63</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1122" r:id="rId89" name="Check Box 98">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>63</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>64</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9BB86C-66CD-44C0-8E2C-A724E89FCF67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{DA9BB86C-66CD-44C0-8E2C-A724E89FCF67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A6FC316C-942E-4C7E-8EBF-9C110E1FF085}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -2902,8 +2902,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2969,8 +2969,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3036,8 +3036,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3103,8 +3103,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3170,8 +3170,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3237,8 +3237,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3304,8 +3304,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3371,8 +3371,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3438,8 +3438,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3505,8 +3505,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3572,8 +3572,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3639,8 +3639,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3706,8 +3706,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3773,8 +3773,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3840,8 +3840,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3907,8 +3907,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3974,8 +3974,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4041,8 +4041,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4108,8 +4108,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4175,8 +4175,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4242,8 +4242,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4309,8 +4309,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4913,7 +4913,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4980,7 +4980,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5047,7 +5047,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5114,7 +5114,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5382,7 +5382,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5516,7 +5516,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5717,7 +5717,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5851,7 +5851,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6610,8 +6610,8 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7393,7 +7393,7 @@
         <v>754</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:I72" si="1">H23-G23</f>
+        <f t="shared" ref="I23:I73" si="1">H23-G23</f>
         <v>567</v>
       </c>
       <c r="J23" s="8">
@@ -8749,7 +8749,7 @@
         <v>0.66875000000000007</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" ref="E63:E72" si="3">(F63-D63)/2+D63-TIME(0,5,0)</f>
+        <f t="shared" ref="E63:E73" si="3">(F63-D63)/2+D63-TIME(0,5,0)</f>
         <v>0.69513888888888897</v>
       </c>
       <c r="F63" s="9">
@@ -9076,9 +9076,38 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
+      <c r="A73" s="6">
+        <v>142</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C73" s="11">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E73" s="9">
+        <f t="shared" si="3"/>
+        <v>0.50381944444444449</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G73" s="7">
+        <v>27</v>
+      </c>
+      <c r="H73" s="7">
+        <v>71</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J73" s="8">
+        <v>44971</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G74" s="7"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9BB86C-66CD-44C0-8E2C-A724E89FCF67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEC900-1632-48D8-9983-812240A0FD11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -539,8 +540,40 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6264,6 +6297,542 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1124"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1126" name="Check Box 102" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1126"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1127" name="Check Box 103" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1127"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1128" name="Check Box 104" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1128"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED010412-33CC-44B0-8AD8-0F1DA07420F5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1129" name="Check Box 105" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1129"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26D9BE0-67CF-4115-9AE6-D00B0E33F15A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1130" name="Check Box 106" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAF811F-76EB-42AB-A6E7-BDD8DBBD023E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6610,8 +7179,8 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11335,6 +11904,182 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1123" r:id="rId90" name="Check Box 99">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>72</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1124" r:id="rId91" name="Check Box 100">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1125" r:id="rId92" name="Check Box 101">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1126" r:id="rId93" name="Check Box 102">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>65</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1127" r:id="rId94" name="Check Box 103">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>65</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1128" r:id="rId95" name="Check Box 104">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1129" r:id="rId96" name="Check Box 105">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1130" r:id="rId97" name="Check Box 106">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEC900-1632-48D8-9983-812240A0FD11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B726A4A-99A8-44CA-9BE9-A391D00304C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -166,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -183,6 +182,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -576,6 +576,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2935,8 +2939,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3002,8 +3006,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3069,8 +3073,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3136,8 +3140,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3203,8 +3207,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3270,8 +3274,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3337,8 +3341,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3404,8 +3408,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3471,8 +3475,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3538,8 +3542,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3605,8 +3609,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3672,8 +3676,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3739,8 +3743,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3806,8 +3810,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3873,8 +3877,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3940,8 +3944,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4007,8 +4011,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4074,8 +4078,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4141,8 +4145,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4208,8 +4212,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4275,8 +4279,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4342,8 +4346,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6698,7 +6702,7 @@
                   <a14:compatExt spid="_x0000_s1128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED010412-33CC-44B0-8AD8-0F1DA07420F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6765,7 +6769,7 @@
                   <a14:compatExt spid="_x0000_s1129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26D9BE0-67CF-4115-9AE6-D00B0E33F15A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6832,7 +6836,74 @@
                   <a14:compatExt spid="_x0000_s1130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAF811F-76EB-42AB-A6E7-BDD8DBBD023E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1131" name="Check Box 107" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D6248A-3508-4A4E-A776-07F626AB7CE3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7180,7 +7251,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7962,7 +8033,7 @@
         <v>754</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:I72" si="1">H23-G23</f>
+        <f t="shared" ref="I23:I73" si="1">H23-G23</f>
         <v>567</v>
       </c>
       <c r="J23" s="8">
@@ -9318,7 +9389,7 @@
         <v>0.66875000000000007</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" ref="E63:E72" si="3">(F63-D63)/2+D63-TIME(0,5,0)</f>
+        <f t="shared" ref="E63:E73" si="3">(F63-D63)/2+D63-TIME(0,5,0)</f>
         <v>0.69513888888888897</v>
       </c>
       <c r="F63" s="9">
@@ -9645,9 +9716,38 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
+      <c r="A73" s="6">
+        <v>142</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C73" s="11">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E73" s="12">
+        <f t="shared" si="3"/>
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="G73" s="7">
+        <v>27</v>
+      </c>
+      <c r="H73" s="7">
+        <v>71</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J73" s="8">
+        <v>44971</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G74" s="7"/>
@@ -12080,6 +12180,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1131" r:id="rId98" name="Check Box 107">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>72</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
